--- a/generator/sg21_surverresults_20191101.xlsx
+++ b/generator/sg21_surverresults_20191101.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp.bloomberg.com\ny-dfs\Users\jberne4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp.bloomberg.com\ny-dfs\users\jberne4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="24240" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="24240"/>
   </bookViews>
   <sheets>
     <sheet name="sg21_results_20191101" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sg21_results_20191101!$A$1:$AJ$206</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1274,7 +1274,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ197"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1397,20 +1399,20 @@
         <v>12</v>
       </c>
       <c r="C2" s="5">
-        <f t="shared" ref="C2:E21" si="0">COUNTIF($G2:$AH2,"="&amp;C$1)</f>
-        <v>18</v>
+        <f>COUNTIF($G2:$AJ2,"="&amp;C$1)</f>
+        <v>20</v>
       </c>
       <c r="D2" s="5">
-        <f t="shared" si="0"/>
+        <f>COUNTIF($G2:$AJ2,"="&amp;D$1)</f>
         <v>10</v>
       </c>
       <c r="E2" s="5">
-        <f t="shared" si="0"/>
+        <f>COUNTIF($G2:$AJ2,"="&amp;E$1)</f>
         <v>0</v>
       </c>
       <c r="F2" s="6">
-        <f t="shared" ref="F2:F65" si="1">(C2*2+D2)/SUM(C2:E2)</f>
-        <v>1.6428571428571428</v>
+        <f t="shared" ref="F2:F65" si="0">(C2*2+D2)/SUM(C2:E2)</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>210</v>
@@ -1512,19 +1514,19 @@
         <v>13</v>
       </c>
       <c r="C3" s="5">
+        <f t="shared" ref="C3:E34" si="1">COUNTIF($G3:$AJ3,"="&amp;C$1)</f>
+        <v>10</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F3" s="6">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D3" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E3" s="5">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="F3" s="6">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -1627,20 +1629,20 @@
         <v>14</v>
       </c>
       <c r="C4" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F4" s="6">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D4" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E4" s="5">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" si="1"/>
-        <v>0.6428571428571429</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>210</v>
@@ -1742,20 +1744,20 @@
         <v>15</v>
       </c>
       <c r="C5" s="5">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F5" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D5" s="5">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E5" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" si="1"/>
-        <v>1.1071428571428572</v>
+        <v>1.1333333333333333</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>212</v>
@@ -1857,20 +1859,20 @@
         <v>16</v>
       </c>
       <c r="C6" s="5">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F6" s="6">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="D6" s="5">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>1.25</v>
+        <v>1.2333333333333334</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>212</v>
@@ -1972,20 +1974,20 @@
         <v>17</v>
       </c>
       <c r="C7" s="5">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F7" s="6">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="D7" s="5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>1.5333333333333334</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>212</v>
@@ -2087,20 +2089,20 @@
         <v>18</v>
       </c>
       <c r="C8" s="5">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F8" s="6">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="D8" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>1.4285714285714286</v>
+        <v>1.4</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>210</v>
@@ -2202,20 +2204,20 @@
         <v>19</v>
       </c>
       <c r="C9" s="5">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F9" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D9" s="5">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="1"/>
-        <v>1.3214285714285714</v>
+        <v>1.3</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>211</v>
@@ -2317,20 +2319,20 @@
         <v>20</v>
       </c>
       <c r="C10" s="5">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="D10" s="5">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="1"/>
-        <v>1.5357142857142858</v>
+        <v>1.5666666666666667</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>211</v>
@@ -2432,20 +2434,20 @@
         <v>21</v>
       </c>
       <c r="C11" s="5">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="D11" s="5">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="1"/>
-        <v>1.6071428571428572</v>
+        <v>1.6333333333333333</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>210</v>
@@ -2547,20 +2549,20 @@
         <v>22</v>
       </c>
       <c r="C12" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F12" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D12" s="5">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" si="1"/>
-        <v>0.9642857142857143</v>
+        <v>0.96666666666666667</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>211</v>
@@ -2662,20 +2664,20 @@
         <v>23</v>
       </c>
       <c r="C13" s="5">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="D13" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E13" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="1"/>
-        <v>1.7142857142857142</v>
+        <v>1.7333333333333334</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>211</v>
@@ -2777,20 +2779,20 @@
         <v>24</v>
       </c>
       <c r="C14" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="D14" s="5">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E14" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" si="1"/>
-        <v>1.6071428571428572</v>
+        <v>1.6333333333333333</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>210</v>
@@ -2892,20 +2894,20 @@
         <v>25</v>
       </c>
       <c r="C15" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F15" s="6">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D15" s="5">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E15" s="5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" si="1"/>
-        <v>0.6785714285714286</v>
+        <v>0.7</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>212</v>
@@ -3007,20 +3009,20 @@
         <v>26</v>
       </c>
       <c r="C16" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F16" s="6">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D16" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E16" s="5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" si="1"/>
-        <v>1.037037037037037</v>
+        <v>1.0689655172413792</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>212</v>
@@ -3119,20 +3121,20 @@
         <v>27</v>
       </c>
       <c r="C17" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="D17" s="5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E17" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" si="1"/>
-        <v>1.6428571428571428</v>
+        <v>1.6333333333333333</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>210</v>
@@ -3234,20 +3236,20 @@
         <v>28</v>
       </c>
       <c r="C18" s="5">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="D18" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E18" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F18" s="6">
-        <f t="shared" si="1"/>
-        <v>1.7857142857142858</v>
+        <v>1.8</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>211</v>
@@ -3349,20 +3351,20 @@
         <v>29</v>
       </c>
       <c r="C19" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F19" s="6">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D19" s="5">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="E19" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F19" s="6">
-        <f t="shared" si="1"/>
-        <v>1.0357142857142858</v>
+        <v>1.0666666666666667</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>212</v>
@@ -3464,20 +3466,20 @@
         <v>30</v>
       </c>
       <c r="C20" s="5">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="D20" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E20" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="6">
-        <f t="shared" si="1"/>
-        <v>1.7857142857142858</v>
+        <v>1.8</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>211</v>
@@ -3579,20 +3581,20 @@
         <v>31</v>
       </c>
       <c r="C21" s="5">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F21" s="6">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="D21" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E21" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F21" s="6">
-        <f t="shared" si="1"/>
-        <v>1.4285714285714286</v>
+        <v>1.4333333333333333</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>211</v>
@@ -3694,20 +3696,20 @@
         <v>32</v>
       </c>
       <c r="C22" s="5">
-        <f t="shared" ref="C22:E41" si="3">COUNTIF($G22:$AH22,"="&amp;C$1)</f>
-        <v>17</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="1"/>
-        <v>1.5357142857142858</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>211</v>
@@ -3809,20 +3811,20 @@
         <v>33</v>
       </c>
       <c r="C23" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D23" s="5">
-        <f t="shared" si="3"/>
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="E23" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="1"/>
-        <v>1.0714285714285714</v>
+        <f t="shared" si="0"/>
+        <v>1.0666666666666667</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>210</v>
@@ -3924,20 +3926,20 @@
         <v>34</v>
       </c>
       <c r="C24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="E24" s="5">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="1"/>
-        <v>0.9642857142857143</v>
+        <f t="shared" si="0"/>
+        <v>0.93333333333333335</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>210</v>
@@ -4039,20 +4041,20 @@
         <v>35</v>
       </c>
       <c r="C25" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="1"/>
-        <v>0.9642857142857143</v>
+        <f t="shared" si="0"/>
+        <v>0.96666666666666667</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>210</v>
@@ -4154,20 +4156,20 @@
         <v>36</v>
       </c>
       <c r="C26" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" si="3"/>
-        <v>19</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="1"/>
-        <v>0.37037037037037035</v>
+        <f t="shared" si="0"/>
+        <v>0.34482758620689657</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>210</v>
@@ -4266,20 +4268,20 @@
         <v>37</v>
       </c>
       <c r="C27" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="1"/>
-        <v>0.29629629629629628</v>
+        <f t="shared" si="0"/>
+        <v>0.27586206896551724</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>210</v>
@@ -4378,20 +4380,20 @@
         <v>38</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D28" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="E28" s="5">
-        <f t="shared" si="3"/>
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="1"/>
-        <v>0.55555555555555558</v>
+        <f t="shared" si="0"/>
+        <v>0.51724137931034486</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>210</v>
@@ -4490,20 +4492,20 @@
         <v>39</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="3"/>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>23</v>
       </c>
       <c r="F29" s="6">
-        <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="0"/>
+        <v>0.31034482758620691</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>212</v>
@@ -4602,20 +4604,20 @@
         <v>40</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" si="3"/>
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="E30" s="5">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" si="1"/>
-        <v>0.70370370370370372</v>
+        <f t="shared" si="0"/>
+        <v>0.68965517241379315</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>210</v>
@@ -4714,20 +4716,20 @@
         <v>41</v>
       </c>
       <c r="C31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="E31" s="5">
-        <f t="shared" si="3"/>
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="F31" s="6">
-        <f t="shared" si="1"/>
-        <v>0.51851851851851849</v>
+        <f t="shared" si="0"/>
+        <v>0.48275862068965519</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>210</v>
@@ -4826,20 +4828,20 @@
         <v>42</v>
       </c>
       <c r="C32" s="5">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="E32" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" si="1"/>
-        <v>1.6071428571428572</v>
+        <f t="shared" si="0"/>
+        <v>1.6333333333333333</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>211</v>
@@ -4941,20 +4943,20 @@
         <v>43</v>
       </c>
       <c r="C33" s="5">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="E33" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F33" s="6">
-        <f t="shared" si="1"/>
-        <v>1.3571428571428572</v>
+        <f t="shared" si="0"/>
+        <v>1.4</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>211</v>
@@ -5056,20 +5058,20 @@
         <v>44</v>
       </c>
       <c r="C34" s="5">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="E34" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F34" s="6">
-        <f t="shared" si="1"/>
-        <v>1.3571428571428572</v>
+        <f t="shared" si="0"/>
+        <v>1.4</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>211</v>
@@ -5171,8 +5173,8 @@
         <v>45</v>
       </c>
       <c r="C35" s="5">
-        <f t="shared" si="3"/>
-        <v>16</v>
+        <f t="shared" ref="C35:E66" si="3">COUNTIF($G35:$AJ35,"="&amp;C$1)</f>
+        <v>18</v>
       </c>
       <c r="D35" s="5">
         <f t="shared" si="3"/>
@@ -5183,8 +5185,8 @@
         <v>1</v>
       </c>
       <c r="F35" s="6">
-        <f t="shared" si="1"/>
-        <v>1.5357142857142858</v>
+        <f t="shared" si="0"/>
+        <v>1.5666666666666667</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>211</v>
@@ -5287,7 +5289,7 @@
       </c>
       <c r="C36" s="5">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D36" s="5">
         <f t="shared" si="3"/>
@@ -5298,8 +5300,8 @@
         <v>2</v>
       </c>
       <c r="F36" s="6">
-        <f t="shared" si="1"/>
-        <v>1.75</v>
+        <f t="shared" si="0"/>
+        <v>1.7666666666666666</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>211</v>
@@ -5402,7 +5404,7 @@
       </c>
       <c r="C37" s="5">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D37" s="5">
         <f t="shared" si="3"/>
@@ -5413,8 +5415,8 @@
         <v>5</v>
       </c>
       <c r="F37" s="6">
-        <f t="shared" si="1"/>
-        <v>1.1785714285714286</v>
+        <f t="shared" si="0"/>
+        <v>1.2333333333333334</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>211</v>
@@ -5517,7 +5519,7 @@
       </c>
       <c r="C38" s="5">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D38" s="5">
         <f t="shared" si="3"/>
@@ -5528,8 +5530,8 @@
         <v>5</v>
       </c>
       <c r="F38" s="6">
-        <f t="shared" si="1"/>
-        <v>1.4642857142857142</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>211</v>
@@ -5632,7 +5634,7 @@
       </c>
       <c r="C39" s="5">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D39" s="5">
         <f t="shared" si="3"/>
@@ -5643,8 +5645,8 @@
         <v>2</v>
       </c>
       <c r="F39" s="6">
-        <f t="shared" si="1"/>
-        <v>1.7857142857142858</v>
+        <f t="shared" si="0"/>
+        <v>1.8</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>211</v>
@@ -5747,19 +5749,19 @@
       </c>
       <c r="C40" s="5">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D40" s="5">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" s="5">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="F40" s="6">
-        <f t="shared" si="1"/>
-        <v>1.1428571428571428</v>
+        <f t="shared" si="0"/>
+        <v>1.1666666666666667</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>211</v>
@@ -5862,19 +5864,19 @@
       </c>
       <c r="C41" s="5">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="5">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E41" s="5">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="F41" s="6">
-        <f t="shared" si="1"/>
-        <v>1.0357142857142858</v>
+        <f t="shared" si="0"/>
+        <v>1.0666666666666667</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>210</v>
@@ -5976,20 +5978,20 @@
         <v>52</v>
       </c>
       <c r="C42" s="5">
-        <f t="shared" ref="C42:E61" si="4">COUNTIF($G42:$AH42,"="&amp;C$1)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="D42" s="5">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="E42" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="F42" s="6">
-        <f t="shared" si="1"/>
-        <v>0.6428571428571429</v>
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>210</v>
@@ -6091,20 +6093,20 @@
         <v>53</v>
       </c>
       <c r="C43" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D43" s="5">
-        <f t="shared" si="4"/>
-        <v>16</v>
+        <f t="shared" si="3"/>
+        <v>17</v>
       </c>
       <c r="E43" s="5">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
       <c r="F43" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5714285714285714</v>
+        <f t="shared" si="0"/>
+        <v>0.56666666666666665</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>210</v>
@@ -6206,20 +6208,20 @@
         <v>54</v>
       </c>
       <c r="C44" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D44" s="5">
-        <f t="shared" si="4"/>
-        <v>16</v>
+        <f t="shared" si="3"/>
+        <v>17</v>
       </c>
       <c r="E44" s="5">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
       <c r="F44" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5714285714285714</v>
+        <f t="shared" si="0"/>
+        <v>0.56666666666666665</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>210</v>
@@ -6321,20 +6323,20 @@
         <v>55</v>
       </c>
       <c r="C45" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D45" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="E45" s="5">
-        <f t="shared" si="4"/>
-        <v>13</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="F45" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5357142857142857</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>210</v>
@@ -6436,20 +6438,20 @@
         <v>56</v>
       </c>
       <c r="C46" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D46" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="E46" s="5">
-        <f t="shared" si="4"/>
-        <v>18</v>
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="F46" s="6">
-        <f t="shared" si="1"/>
-        <v>0.39285714285714285</v>
+        <f t="shared" si="0"/>
+        <v>0.36666666666666664</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>212</v>
@@ -6551,20 +6553,20 @@
         <v>57</v>
       </c>
       <c r="C47" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="D47" s="5">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
       <c r="E47" s="5">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
       <c r="F47" s="6">
-        <f t="shared" si="1"/>
-        <v>0.8571428571428571</v>
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>212</v>
@@ -6666,20 +6668,20 @@
         <v>58</v>
       </c>
       <c r="C48" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="D48" s="5">
-        <f t="shared" si="4"/>
-        <v>14</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="E48" s="5">
-        <f t="shared" si="4"/>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="F48" s="6">
-        <f t="shared" si="1"/>
-        <v>0.8571428571428571</v>
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>212</v>
@@ -6781,20 +6783,20 @@
         <v>59</v>
       </c>
       <c r="C49" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D49" s="5">
-        <f t="shared" si="4"/>
-        <v>16</v>
+        <f t="shared" si="3"/>
+        <v>17</v>
       </c>
       <c r="E49" s="5">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
       <c r="F49" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5714285714285714</v>
+        <f t="shared" si="0"/>
+        <v>0.56666666666666665</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>212</v>
@@ -6896,20 +6898,20 @@
         <v>60</v>
       </c>
       <c r="C50" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D50" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E50" s="5">
-        <f t="shared" si="4"/>
-        <v>17</v>
+        <f t="shared" si="3"/>
+        <v>19</v>
       </c>
       <c r="F50" s="6">
-        <f t="shared" si="1"/>
-        <v>0.39285714285714285</v>
+        <f t="shared" si="0"/>
+        <v>0.36666666666666664</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>212</v>
@@ -7011,20 +7013,20 @@
         <v>61</v>
       </c>
       <c r="C51" s="5">
-        <f t="shared" si="4"/>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="D51" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="E51" s="5">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="F51" s="6">
-        <f t="shared" si="1"/>
-        <v>1.1428571428571428</v>
+        <f t="shared" si="0"/>
+        <v>1.1333333333333333</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>212</v>
@@ -7126,20 +7128,20 @@
         <v>62</v>
       </c>
       <c r="C52" s="5">
-        <f t="shared" si="4"/>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="D52" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="E52" s="5">
-        <f t="shared" si="4"/>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="F52" s="6">
-        <f t="shared" si="1"/>
-        <v>1.0714285714285714</v>
+        <f t="shared" si="0"/>
+        <v>1.0666666666666667</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>212</v>
@@ -7241,20 +7243,20 @@
         <v>63</v>
       </c>
       <c r="C53" s="5">
-        <f t="shared" si="4"/>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="D53" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="E53" s="5">
-        <f t="shared" si="4"/>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="F53" s="6">
-        <f t="shared" si="1"/>
-        <v>1.0714285714285714</v>
+        <f t="shared" si="0"/>
+        <v>1.0666666666666667</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>212</v>
@@ -7356,20 +7358,20 @@
         <v>64</v>
       </c>
       <c r="C54" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="D54" s="5">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="D54" s="5">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
       <c r="E54" s="5">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
       <c r="F54" s="6">
-        <f t="shared" si="1"/>
-        <v>0.9642857142857143</v>
+        <f t="shared" si="0"/>
+        <v>0.96666666666666667</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>212</v>
@@ -7471,20 +7473,20 @@
         <v>65</v>
       </c>
       <c r="C55" s="5">
-        <f t="shared" si="4"/>
-        <v>14</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="D55" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E55" s="5">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="F55" s="6">
-        <f t="shared" si="1"/>
-        <v>1.3928571428571428</v>
+        <f t="shared" si="0"/>
+        <v>1.3666666666666667</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>211</v>
@@ -7586,20 +7588,20 @@
         <v>66</v>
       </c>
       <c r="C56" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="D56" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="E56" s="5">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="F56" s="6">
-        <f t="shared" si="1"/>
-        <v>0.8214285714285714</v>
+        <f t="shared" si="0"/>
+        <v>0.76666666666666672</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>210</v>
@@ -7701,20 +7703,20 @@
         <v>67</v>
       </c>
       <c r="C57" s="5">
-        <f t="shared" si="4"/>
-        <v>19</v>
+        <f t="shared" si="3"/>
+        <v>21</v>
       </c>
       <c r="D57" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="E57" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="F57" s="6">
-        <f t="shared" si="1"/>
-        <v>1.5714285714285714</v>
+        <f t="shared" si="0"/>
+        <v>1.6</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>211</v>
@@ -7816,20 +7818,20 @@
         <v>68</v>
       </c>
       <c r="C58" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="D58" s="5">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="D58" s="5">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
       <c r="E58" s="5">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="F58" s="6">
-        <f t="shared" si="1"/>
-        <v>1.2857142857142858</v>
+        <f t="shared" si="0"/>
+        <v>1.2666666666666666</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>211</v>
@@ -7931,20 +7933,20 @@
         <v>69</v>
       </c>
       <c r="C59" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="D59" s="5">
-        <f t="shared" si="4"/>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
       <c r="E59" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="F59" s="6">
-        <f t="shared" si="1"/>
-        <v>0.8214285714285714</v>
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>212</v>
@@ -8046,20 +8048,20 @@
         <v>70</v>
       </c>
       <c r="C60" s="5">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="D60" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E60" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="F60" s="6">
-        <f t="shared" si="1"/>
-        <v>1.1071428571428572</v>
+        <f t="shared" si="0"/>
+        <v>1.1666666666666667</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>211</v>
@@ -8161,20 +8163,20 @@
         <v>71</v>
       </c>
       <c r="C61" s="5">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="D61" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="E61" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F61" s="6">
-        <f t="shared" si="1"/>
-        <v>1.2222222222222223</v>
+        <f t="shared" si="0"/>
+        <v>1.2758620689655173</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>211</v>
@@ -8273,20 +8275,20 @@
         <v>72</v>
       </c>
       <c r="C62" s="5">
-        <f t="shared" ref="C62:E81" si="5">COUNTIF($G62:$AH62,"="&amp;C$1)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="D62" s="5">
-        <f t="shared" si="5"/>
-        <v>19</v>
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="E62" s="5">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="F62" s="6">
-        <f t="shared" si="1"/>
-        <v>1.1071428571428572</v>
+        <f t="shared" si="0"/>
+        <v>1.0666666666666667</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>211</v>
@@ -8388,20 +8390,20 @@
         <v>73</v>
       </c>
       <c r="C63" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="D63" s="5">
-        <f t="shared" si="5"/>
-        <v>19</v>
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="E63" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="F63" s="6">
-        <f t="shared" si="1"/>
-        <v>1.25</v>
+        <f t="shared" si="0"/>
+        <v>1.2</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>211</v>
@@ -8503,20 +8505,20 @@
         <v>74</v>
       </c>
       <c r="C64" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="D64" s="5">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="E64" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="F64" s="6">
-        <f t="shared" si="1"/>
-        <v>0.6428571428571429</v>
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>212</v>
@@ -8618,20 +8620,20 @@
         <v>75</v>
       </c>
       <c r="C65" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="D65" s="5">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <f t="shared" si="3"/>
+        <v>19</v>
       </c>
       <c r="E65" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F65" s="6">
-        <f t="shared" si="1"/>
-        <v>0.7142857142857143</v>
+        <f t="shared" si="0"/>
+        <v>0.76666666666666672</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>210</v>
@@ -8733,20 +8735,20 @@
         <v>76</v>
       </c>
       <c r="C66" s="5">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="D66" s="5">
-        <f t="shared" si="5"/>
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>21</v>
       </c>
       <c r="E66" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F66" s="6">
-        <f t="shared" ref="F66:F129" si="6">(C66*2+D66)/SUM(C66:E66)</f>
-        <v>0.9285714285714286</v>
+        <f t="shared" ref="F66:F129" si="4">(C66*2+D66)/SUM(C66:E66)</f>
+        <v>0.96666666666666667</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>211</v>
@@ -8848,20 +8850,20 @@
         <v>77</v>
       </c>
       <c r="C67" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" ref="C67:E98" si="5">COUNTIF($G67:$AJ67,"="&amp;C$1)</f>
+        <v>2</v>
       </c>
       <c r="D67" s="5">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E67" s="5">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="F67" s="6">
-        <f t="shared" si="6"/>
-        <v>0.75</v>
+        <f t="shared" si="4"/>
+        <v>0.8</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>210</v>
@@ -8956,7 +8958,7 @@
     </row>
     <row r="68" spans="1:36" ht="87.75" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
-        <f t="shared" ref="A68:A131" si="7">A67+1</f>
+        <f t="shared" ref="A68:A131" si="6">A67+1</f>
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -8964,7 +8966,7 @@
       </c>
       <c r="C68" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" s="5">
         <f t="shared" si="5"/>
@@ -8972,11 +8974,11 @@
       </c>
       <c r="E68" s="5">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F68" s="6">
-        <f t="shared" si="6"/>
-        <v>0.5357142857142857</v>
+        <f t="shared" si="4"/>
+        <v>0.56666666666666665</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>210</v>
@@ -9071,7 +9073,7 @@
     </row>
     <row r="69" spans="1:36" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -9079,7 +9081,7 @@
       </c>
       <c r="C69" s="5">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69" s="5">
         <f t="shared" si="5"/>
@@ -9087,11 +9089,11 @@
       </c>
       <c r="E69" s="5">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F69" s="6">
-        <f t="shared" si="6"/>
-        <v>0.55555555555555558</v>
+        <f t="shared" si="4"/>
+        <v>0.58620689655172409</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>211</v>
@@ -9183,7 +9185,7 @@
     </row>
     <row r="70" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
@@ -9191,7 +9193,7 @@
       </c>
       <c r="C70" s="5">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70" s="5">
         <f t="shared" si="5"/>
@@ -9199,11 +9201,11 @@
       </c>
       <c r="E70" s="5">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F70" s="6">
-        <f t="shared" si="6"/>
-        <v>0.7142857142857143</v>
+        <f t="shared" si="4"/>
+        <v>0.73333333333333328</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>210</v>
@@ -9298,7 +9300,7 @@
     </row>
     <row r="71" spans="1:36" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -9306,7 +9308,7 @@
       </c>
       <c r="C71" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" s="5">
         <f t="shared" si="5"/>
@@ -9314,11 +9316,11 @@
       </c>
       <c r="E71" s="5">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" s="6">
-        <f t="shared" si="6"/>
-        <v>0.7142857142857143</v>
+        <f t="shared" si="4"/>
+        <v>0.73333333333333328</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>211</v>
@@ -9413,7 +9415,7 @@
     </row>
     <row r="72" spans="1:36" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
@@ -9421,7 +9423,7 @@
       </c>
       <c r="C72" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" s="5">
         <f t="shared" si="5"/>
@@ -9429,11 +9431,11 @@
       </c>
       <c r="E72" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F72" s="6">
-        <f t="shared" si="6"/>
-        <v>0.8214285714285714</v>
+        <f t="shared" si="4"/>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>211</v>
@@ -9528,7 +9530,7 @@
     </row>
     <row r="73" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -9536,7 +9538,7 @@
       </c>
       <c r="C73" s="5">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" s="5">
         <f t="shared" si="5"/>
@@ -9544,11 +9546,11 @@
       </c>
       <c r="E73" s="5">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F73" s="6">
-        <f t="shared" si="6"/>
-        <v>0.6071428571428571</v>
+        <f t="shared" si="4"/>
+        <v>0.6333333333333333</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>210</v>
@@ -9643,7 +9645,7 @@
     </row>
     <row r="74" spans="1:36" ht="116.25" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -9651,7 +9653,7 @@
       </c>
       <c r="C74" s="5">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D74" s="5">
         <f t="shared" si="5"/>
@@ -9659,11 +9661,11 @@
       </c>
       <c r="E74" s="5">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F74" s="6">
-        <f t="shared" si="6"/>
-        <v>1.0357142857142858</v>
+        <f t="shared" si="4"/>
+        <v>1.0333333333333334</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>211</v>
@@ -9758,7 +9760,7 @@
     </row>
     <row r="75" spans="1:36" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -9770,15 +9772,15 @@
       </c>
       <c r="D75" s="5">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E75" s="5">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="F75" s="6">
-        <f t="shared" si="6"/>
-        <v>1.0357142857142858</v>
+        <f t="shared" si="4"/>
+        <v>1.0333333333333334</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>210</v>
@@ -9873,7 +9875,7 @@
     </row>
     <row r="76" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -9889,11 +9891,11 @@
       </c>
       <c r="E76" s="5">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F76" s="6">
-        <f t="shared" si="6"/>
-        <v>0.8928571428571429</v>
+        <f t="shared" si="4"/>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>211</v>
@@ -9988,7 +9990,7 @@
     </row>
     <row r="77" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
@@ -10000,15 +10002,15 @@
       </c>
       <c r="D77" s="5">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E77" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F77" s="6">
-        <f t="shared" si="6"/>
-        <v>1.2857142857142858</v>
+        <f t="shared" si="4"/>
+        <v>1.2333333333333334</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>210</v>
@@ -10103,7 +10105,7 @@
     </row>
     <row r="78" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
@@ -10115,15 +10117,15 @@
       </c>
       <c r="D78" s="5">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E78" s="5">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="F78" s="6">
-        <f t="shared" si="6"/>
-        <v>1.25</v>
+        <f t="shared" si="4"/>
+        <v>1.2333333333333334</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>211</v>
@@ -10218,7 +10220,7 @@
     </row>
     <row r="79" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
@@ -10230,15 +10232,15 @@
       </c>
       <c r="D79" s="5">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E79" s="5">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F79" s="6">
-        <f t="shared" si="6"/>
-        <v>0.9285714285714286</v>
+        <f t="shared" si="4"/>
+        <v>0.9</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>210</v>
@@ -10333,7 +10335,7 @@
     </row>
     <row r="80" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
@@ -10341,19 +10343,19 @@
       </c>
       <c r="C80" s="5">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D80" s="5">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E80" s="5">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F80" s="6">
-        <f t="shared" si="6"/>
-        <v>1.4642857142857142</v>
+        <f t="shared" si="4"/>
+        <v>1.4666666666666666</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>211</v>
@@ -10448,7 +10450,7 @@
     </row>
     <row r="81" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
@@ -10456,7 +10458,7 @@
       </c>
       <c r="C81" s="5">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D81" s="5">
         <f t="shared" si="5"/>
@@ -10467,8 +10469,8 @@
         <v>4</v>
       </c>
       <c r="F81" s="6">
-        <f t="shared" si="6"/>
-        <v>1.3928571428571428</v>
+        <f t="shared" si="4"/>
+        <v>1.4333333333333333</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>211</v>
@@ -10563,27 +10565,27 @@
     </row>
     <row r="82" spans="1:36" ht="45" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C82" s="5">
-        <f t="shared" ref="C82:E101" si="8">COUNTIF($G82:$AH82,"="&amp;C$1)</f>
-        <v>22</v>
+        <f t="shared" si="5"/>
+        <v>24</v>
       </c>
       <c r="D82" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="E82" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F82" s="6">
-        <f t="shared" si="6"/>
-        <v>1.7857142857142858</v>
+        <f t="shared" si="4"/>
+        <v>1.8</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>211</v>
@@ -10678,27 +10680,27 @@
     </row>
     <row r="83" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C83" s="5">
-        <f t="shared" si="8"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
       <c r="D83" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="E83" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F83" s="6">
-        <f t="shared" si="6"/>
-        <v>1.6666666666666667</v>
+        <f t="shared" si="4"/>
+        <v>1.6896551724137931</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>211</v>
@@ -10790,27 +10792,27 @@
     </row>
     <row r="84" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C84" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="D84" s="5">
-        <f t="shared" si="8"/>
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="E84" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="F84" s="6">
-        <f t="shared" si="6"/>
-        <v>1.1071428571428572</v>
+        <f t="shared" si="4"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>210</v>
@@ -10905,27 +10907,27 @@
     </row>
     <row r="85" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>95</v>
       </c>
       <c r="C85" s="5">
-        <f t="shared" si="8"/>
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="D85" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="E85" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F85" s="6">
-        <f t="shared" si="6"/>
-        <v>1.4285714285714286</v>
+        <f t="shared" si="4"/>
+        <v>1.4666666666666666</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>210</v>
@@ -11020,27 +11022,27 @@
     </row>
     <row r="86" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C86" s="5">
-        <f t="shared" si="8"/>
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="D86" s="5">
-        <f t="shared" si="8"/>
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="E86" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F86" s="6">
-        <f t="shared" si="6"/>
-        <v>1.3928571428571428</v>
+        <f t="shared" si="4"/>
+        <v>1.4</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>210</v>
@@ -11135,27 +11137,27 @@
     </row>
     <row r="87" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C87" s="5">
-        <f t="shared" si="8"/>
-        <v>6</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="D87" s="5">
-        <f t="shared" si="8"/>
-        <v>17</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="E87" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="F87" s="6">
-        <f t="shared" si="6"/>
-        <v>1.0357142857142858</v>
+        <f t="shared" si="4"/>
+        <v>1.0666666666666667</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>210</v>
@@ -11250,27 +11252,27 @@
     </row>
     <row r="88" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C88" s="5">
-        <f t="shared" si="8"/>
-        <v>18</v>
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
       <c r="D88" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="E88" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F88" s="6">
-        <f t="shared" si="6"/>
-        <v>1.6071428571428572</v>
+        <f t="shared" si="4"/>
+        <v>1.6333333333333333</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>211</v>
@@ -11365,27 +11367,27 @@
     </row>
     <row r="89" spans="1:36" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C89" s="5">
-        <f t="shared" si="8"/>
-        <v>10</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="D89" s="5">
-        <f t="shared" si="8"/>
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="E89" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="F89" s="6">
-        <f t="shared" si="6"/>
-        <v>1.1785714285714286</v>
+        <f t="shared" si="4"/>
+        <v>1.2</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>210</v>
@@ -11480,27 +11482,27 @@
     </row>
     <row r="90" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>100</v>
       </c>
       <c r="C90" s="5">
-        <f t="shared" si="8"/>
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="D90" s="5">
-        <f t="shared" si="8"/>
-        <v>8</v>
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="E90" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="F90" s="6">
-        <f t="shared" si="6"/>
-        <v>1.2142857142857142</v>
+        <f t="shared" si="4"/>
+        <v>1.2333333333333334</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>210</v>
@@ -11595,27 +11597,27 @@
     </row>
     <row r="91" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C91" s="5">
-        <f t="shared" si="8"/>
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="D91" s="5">
-        <f t="shared" si="8"/>
-        <v>8</v>
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="E91" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="F91" s="6">
-        <f t="shared" si="6"/>
-        <v>1.2857142857142858</v>
+        <f t="shared" si="4"/>
+        <v>1.3</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>211</v>
@@ -11710,27 +11712,27 @@
     </row>
     <row r="92" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C92" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="D92" s="5">
-        <f t="shared" si="8"/>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="E92" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="F92" s="6">
-        <f t="shared" si="6"/>
-        <v>0.62962962962962965</v>
+        <f t="shared" si="4"/>
+        <v>0.65517241379310343</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>211</v>
@@ -11822,27 +11824,27 @@
     </row>
     <row r="93" spans="1:36" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C93" s="5">
-        <f t="shared" si="8"/>
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="D93" s="5">
-        <f t="shared" si="8"/>
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="E93" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="F93" s="6">
-        <f t="shared" si="6"/>
-        <v>0.9642857142857143</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>212</v>
@@ -11937,27 +11939,27 @@
     </row>
     <row r="94" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>104</v>
       </c>
       <c r="C94" s="5">
-        <f t="shared" si="8"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
       <c r="D94" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="E94" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="F94" s="6">
-        <f t="shared" si="6"/>
-        <v>1.5714285714285714</v>
+        <f t="shared" si="4"/>
+        <v>1.6</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>212</v>
@@ -12052,27 +12054,27 @@
     </row>
     <row r="95" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C95" s="5">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="D95" s="5">
-        <f t="shared" si="8"/>
-        <v>10</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="E95" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="F95" s="6">
-        <f t="shared" si="6"/>
-        <v>0.6428571428571429</v>
+        <f t="shared" si="4"/>
+        <v>0.7</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>210</v>
@@ -12167,27 +12169,27 @@
     </row>
     <row r="96" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C96" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="D96" s="5">
-        <f t="shared" si="8"/>
-        <v>10</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="E96" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="F96" s="6">
-        <f t="shared" si="6"/>
-        <v>1.037037037037037</v>
+        <f t="shared" si="4"/>
+        <v>1.0344827586206897</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>212</v>
@@ -12279,27 +12281,27 @@
     </row>
     <row r="97" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>107</v>
       </c>
       <c r="C97" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="D97" s="5">
-        <f t="shared" si="8"/>
-        <v>10</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="E97" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="F97" s="6">
-        <f t="shared" si="6"/>
-        <v>0.5714285714285714</v>
+        <f t="shared" si="4"/>
+        <v>0.6</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>210</v>
@@ -12394,27 +12396,27 @@
     </row>
     <row r="98" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C98" s="5">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="D98" s="5">
-        <f t="shared" si="8"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
       <c r="E98" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="F98" s="6">
-        <f t="shared" si="6"/>
-        <v>0.85185185185185186</v>
+        <f t="shared" si="4"/>
+        <v>0.89655172413793105</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>210</v>
@@ -12506,27 +12508,27 @@
     </row>
     <row r="99" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C99" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="C99:E130" si="7">COUNTIF($G99:$AJ99,"="&amp;C$1)</f>
         <v>4</v>
       </c>
       <c r="D99" s="5">
-        <f t="shared" si="8"/>
-        <v>14</v>
+        <f t="shared" si="7"/>
+        <v>16</v>
       </c>
       <c r="E99" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="F99" s="6">
-        <f t="shared" si="6"/>
-        <v>0.81481481481481477</v>
+        <f t="shared" si="4"/>
+        <v>0.82758620689655171</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>210</v>
@@ -12618,27 +12620,27 @@
     </row>
     <row r="100" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C100" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="D100" s="5">
-        <f t="shared" si="8"/>
-        <v>9</v>
+        <f t="shared" si="7"/>
+        <v>10</v>
       </c>
       <c r="E100" s="5">
-        <f t="shared" si="8"/>
-        <v>15</v>
+        <f t="shared" si="7"/>
+        <v>16</v>
       </c>
       <c r="F100" s="6">
-        <f t="shared" si="6"/>
-        <v>0.6071428571428571</v>
+        <f t="shared" si="4"/>
+        <v>0.6</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>210</v>
@@ -12733,27 +12735,27 @@
     </row>
     <row r="101" spans="1:36" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>111</v>
       </c>
       <c r="C101" s="5">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="D101" s="5">
-        <f t="shared" si="8"/>
-        <v>15</v>
+        <f t="shared" si="7"/>
+        <v>16</v>
       </c>
       <c r="E101" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="F101" s="6">
-        <f t="shared" si="6"/>
-        <v>0.6785714285714286</v>
+        <f t="shared" si="4"/>
+        <v>0.73333333333333328</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>210</v>
@@ -12848,27 +12850,27 @@
     </row>
     <row r="102" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>112</v>
       </c>
       <c r="C102" s="5">
-        <f t="shared" ref="C102:E121" si="9">COUNTIF($G102:$AH102,"="&amp;C$1)</f>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="D102" s="5">
-        <f t="shared" si="9"/>
-        <v>14</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
       <c r="E102" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="F102" s="6">
-        <f t="shared" si="6"/>
-        <v>0.6428571428571429</v>
+        <f t="shared" si="4"/>
+        <v>0.7</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>210</v>
@@ -12963,27 +12965,27 @@
     </row>
     <row r="103" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C103" s="5">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="D103" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="E103" s="5">
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="E103" s="5">
-        <f t="shared" si="9"/>
-        <v>13</v>
-      </c>
       <c r="F103" s="6">
-        <f t="shared" si="6"/>
-        <v>0.6071428571428571</v>
+        <f t="shared" si="4"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>210</v>
@@ -13078,27 +13080,27 @@
     </row>
     <row r="104" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>114</v>
       </c>
       <c r="C104" s="5">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="D104" s="5">
-        <f t="shared" si="9"/>
-        <v>18</v>
+        <f t="shared" si="7"/>
+        <v>19</v>
       </c>
       <c r="E104" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F104" s="6">
-        <f t="shared" si="6"/>
-        <v>0.9285714285714286</v>
+        <f t="shared" si="4"/>
+        <v>0.96666666666666667</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>210</v>
@@ -13193,27 +13195,27 @@
     </row>
     <row r="105" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C105" s="5">
-        <f t="shared" si="9"/>
-        <v>13</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
       <c r="D105" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="E105" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="F105" s="6">
-        <f t="shared" si="6"/>
-        <v>1.1428571428571428</v>
+        <f t="shared" si="4"/>
+        <v>1.2</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>210</v>
@@ -13308,27 +13310,27 @@
     </row>
     <row r="106" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C106" s="5">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="7"/>
+        <v>22</v>
       </c>
       <c r="D106" s="5">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="E106" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="F106" s="6">
-        <f t="shared" si="6"/>
-        <v>1.6428571428571428</v>
+        <f t="shared" si="4"/>
+        <v>1.6333333333333333</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>211</v>
@@ -13423,27 +13425,27 @@
     </row>
     <row r="107" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C107" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="D107" s="5">
-        <f t="shared" si="9"/>
-        <v>11</v>
+        <f t="shared" si="7"/>
+        <v>12</v>
       </c>
       <c r="E107" s="5">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
       <c r="F107" s="6">
-        <f t="shared" si="6"/>
-        <v>1.25</v>
+        <f t="shared" si="4"/>
+        <v>1.2</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>210</v>
@@ -13538,27 +13540,27 @@
     </row>
     <row r="108" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C108" s="5">
-        <f t="shared" si="9"/>
-        <v>23</v>
+        <f t="shared" si="7"/>
+        <v>25</v>
       </c>
       <c r="D108" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="E108" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F108" s="6">
-        <f t="shared" si="6"/>
-        <v>1.7857142857142858</v>
+        <f t="shared" si="4"/>
+        <v>1.8</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>211</v>
@@ -13653,27 +13655,27 @@
     </row>
     <row r="109" spans="1:36" ht="102" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C109" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="D109" s="5">
-        <f t="shared" si="9"/>
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>13</v>
       </c>
       <c r="E109" s="5">
-        <f t="shared" si="9"/>
-        <v>10</v>
+        <f t="shared" si="7"/>
+        <v>11</v>
       </c>
       <c r="F109" s="6">
-        <f t="shared" si="6"/>
-        <v>0.8571428571428571</v>
+        <f t="shared" si="4"/>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>212</v>
@@ -13768,27 +13770,27 @@
     </row>
     <row r="110" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C110" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="D110" s="5">
-        <f t="shared" si="9"/>
-        <v>9</v>
+        <f t="shared" si="7"/>
+        <v>10</v>
       </c>
       <c r="E110" s="5">
-        <f t="shared" si="9"/>
-        <v>13</v>
+        <f t="shared" si="7"/>
+        <v>14</v>
       </c>
       <c r="F110" s="6">
-        <f t="shared" si="6"/>
-        <v>0.75</v>
+        <f t="shared" si="4"/>
+        <v>0.73333333333333328</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>212</v>
@@ -13883,27 +13885,27 @@
     </row>
     <row r="111" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C111" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="D111" s="5">
-        <f t="shared" si="9"/>
-        <v>8</v>
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
       <c r="E111" s="5">
-        <f t="shared" si="9"/>
-        <v>16</v>
+        <f t="shared" si="7"/>
+        <v>17</v>
       </c>
       <c r="F111" s="6">
-        <f t="shared" si="6"/>
-        <v>0.5714285714285714</v>
+        <f t="shared" si="4"/>
+        <v>0.56666666666666665</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>212</v>
@@ -13998,27 +14000,27 @@
     </row>
     <row r="112" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C112" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="D112" s="5">
-        <f t="shared" si="9"/>
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>13</v>
       </c>
       <c r="E112" s="5">
-        <f t="shared" si="9"/>
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>13</v>
       </c>
       <c r="F112" s="6">
-        <f t="shared" si="6"/>
-        <v>0.7142857142857143</v>
+        <f t="shared" si="4"/>
+        <v>0.7</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>210</v>
@@ -14113,27 +14115,27 @@
     </row>
     <row r="113" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C113" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="D113" s="5">
-        <f t="shared" si="9"/>
-        <v>10</v>
+        <f t="shared" si="7"/>
+        <v>11</v>
       </c>
       <c r="E113" s="5">
-        <f t="shared" si="9"/>
-        <v>11</v>
+        <f t="shared" si="7"/>
+        <v>12</v>
       </c>
       <c r="F113" s="6">
-        <f t="shared" si="6"/>
-        <v>0.8571428571428571</v>
+        <f t="shared" si="4"/>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>210</v>
@@ -14228,27 +14230,27 @@
     </row>
     <row r="114" spans="1:36" ht="102" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>124</v>
       </c>
       <c r="C114" s="5">
-        <f t="shared" si="9"/>
-        <v>9</v>
+        <f t="shared" si="7"/>
+        <v>10</v>
       </c>
       <c r="D114" s="5">
-        <f t="shared" si="9"/>
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>13</v>
       </c>
       <c r="E114" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="F114" s="6">
-        <f t="shared" si="6"/>
-        <v>1.0714285714285714</v>
+        <f t="shared" si="4"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>212</v>
@@ -14343,27 +14345,27 @@
     </row>
     <row r="115" spans="1:36" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>125</v>
       </c>
       <c r="C115" s="5">
-        <f t="shared" si="9"/>
-        <v>13</v>
+        <f t="shared" si="7"/>
+        <v>14</v>
       </c>
       <c r="D115" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="E115" s="5">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="F115" s="6">
-        <f t="shared" si="6"/>
-        <v>1.4074074074074074</v>
+        <f t="shared" si="4"/>
+        <v>1.3793103448275863</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>211</v>
@@ -14455,27 +14457,27 @@
     </row>
     <row r="116" spans="1:36" ht="87.75" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>126</v>
       </c>
       <c r="C116" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D116" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="E116" s="5">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <f t="shared" si="7"/>
+        <v>8</v>
       </c>
       <c r="F116" s="6">
-        <f t="shared" si="6"/>
-        <v>1.1538461538461537</v>
+        <f t="shared" si="4"/>
+        <v>1.0714285714285714</v>
       </c>
       <c r="H116" s="4" t="s">
         <v>211</v>
@@ -14564,26 +14566,26 @@
     </row>
     <row r="117" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>127</v>
       </c>
       <c r="C117" s="5">
-        <f t="shared" si="9"/>
-        <v>17</v>
+        <f t="shared" si="7"/>
+        <v>18</v>
       </c>
       <c r="D117" s="5">
-        <f t="shared" si="9"/>
-        <v>8</v>
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
       <c r="E117" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="F117" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="G117" s="4" t="s">
@@ -14679,27 +14681,27 @@
     </row>
     <row r="118" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C118" s="5">
-        <f t="shared" si="9"/>
-        <v>14</v>
+        <f t="shared" si="7"/>
+        <v>16</v>
       </c>
       <c r="D118" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="E118" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="F118" s="6">
-        <f t="shared" si="6"/>
-        <v>1.2142857142857142</v>
+        <f t="shared" si="4"/>
+        <v>1.2666666666666666</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>212</v>
@@ -14794,27 +14796,27 @@
     </row>
     <row r="119" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C119" s="5">
-        <f t="shared" si="9"/>
-        <v>17</v>
+        <f t="shared" si="7"/>
+        <v>19</v>
       </c>
       <c r="D119" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="E119" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="F119" s="6">
-        <f t="shared" si="6"/>
-        <v>1.4642857142857142</v>
+        <f t="shared" si="4"/>
+        <v>1.5</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>212</v>
@@ -14909,26 +14911,26 @@
     </row>
     <row r="120" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C120" s="5">
-        <f t="shared" si="9"/>
-        <v>8</v>
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
       <c r="D120" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="E120" s="5">
-        <f t="shared" si="9"/>
-        <v>8</v>
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
       <c r="F120" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G120" s="4" t="s">
@@ -15024,27 +15026,27 @@
     </row>
     <row r="121" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C121" s="5">
-        <f t="shared" si="9"/>
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>14</v>
       </c>
       <c r="D121" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="E121" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F121" s="6">
-        <f t="shared" si="6"/>
-        <v>1.3928571428571428</v>
+        <f t="shared" si="4"/>
+        <v>1.4333333333333333</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>211</v>
@@ -15139,27 +15141,27 @@
     </row>
     <row r="122" spans="1:36" ht="45" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C122" s="5">
-        <f t="shared" ref="C122:E141" si="10">COUNTIF($G122:$AH122,"="&amp;C$1)</f>
-        <v>19</v>
+        <f t="shared" si="7"/>
+        <v>21</v>
       </c>
       <c r="D122" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="E122" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F122" s="6">
-        <f t="shared" si="6"/>
-        <v>1.6785714285714286</v>
+        <f t="shared" si="4"/>
+        <v>1.7</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>211</v>
@@ -15254,27 +15256,27 @@
     </row>
     <row r="123" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>133</v>
       </c>
       <c r="C123" s="5">
-        <f t="shared" si="10"/>
-        <v>19</v>
+        <f t="shared" si="7"/>
+        <v>21</v>
       </c>
       <c r="D123" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="E123" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="F123" s="6">
-        <f t="shared" si="6"/>
-        <v>1.5714285714285714</v>
+        <f t="shared" si="4"/>
+        <v>1.6</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>211</v>
@@ -15369,27 +15371,27 @@
     </row>
     <row r="124" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>134</v>
       </c>
       <c r="C124" s="5">
-        <f t="shared" si="10"/>
-        <v>18</v>
+        <f t="shared" si="7"/>
+        <v>20</v>
       </c>
       <c r="D124" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="E124" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F124" s="6">
-        <f t="shared" si="6"/>
-        <v>1.6071428571428572</v>
+        <f t="shared" si="4"/>
+        <v>1.6333333333333333</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>211</v>
@@ -15484,27 +15486,27 @@
     </row>
     <row r="125" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C125" s="5">
-        <f t="shared" si="10"/>
-        <v>16</v>
+        <f t="shared" si="7"/>
+        <v>18</v>
       </c>
       <c r="D125" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="E125" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F125" s="6">
-        <f t="shared" si="6"/>
-        <v>1.5357142857142858</v>
+        <f t="shared" si="4"/>
+        <v>1.5666666666666667</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>211</v>
@@ -15599,27 +15601,27 @@
     </row>
     <row r="126" spans="1:36" ht="45" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C126" s="5">
-        <f t="shared" si="10"/>
-        <v>21</v>
+        <f t="shared" si="7"/>
+        <v>23</v>
       </c>
       <c r="D126" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="E126" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F126" s="6">
-        <f t="shared" si="6"/>
-        <v>1.75</v>
+        <f t="shared" si="4"/>
+        <v>1.7666666666666666</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>211</v>
@@ -15714,27 +15716,27 @@
     </row>
     <row r="127" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C127" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="D127" s="5">
-        <f t="shared" si="10"/>
-        <v>11</v>
+        <f t="shared" si="7"/>
+        <v>12</v>
       </c>
       <c r="E127" s="5">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="F127" s="6">
-        <f t="shared" si="6"/>
-        <v>1.3928571428571428</v>
+        <f t="shared" si="4"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="G127" s="4" t="s">
         <v>211</v>
@@ -15829,27 +15831,27 @@
     </row>
     <row r="128" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>138</v>
       </c>
       <c r="C128" s="5">
-        <f t="shared" si="10"/>
-        <v>14</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
       <c r="D128" s="5">
-        <f t="shared" si="10"/>
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>13</v>
       </c>
       <c r="E128" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="F128" s="6">
-        <f t="shared" si="6"/>
-        <v>1.4285714285714286</v>
+        <f t="shared" si="4"/>
+        <v>1.4333333333333333</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>210</v>
@@ -15944,27 +15946,27 @@
     </row>
     <row r="129" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>139</v>
       </c>
       <c r="C129" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="D129" s="5">
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="D129" s="5">
-        <f t="shared" si="10"/>
-        <v>12</v>
-      </c>
       <c r="E129" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="F129" s="6">
-        <f t="shared" si="6"/>
-        <v>1.2857142857142858</v>
+        <f t="shared" si="4"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>210</v>
@@ -16059,27 +16061,27 @@
     </row>
     <row r="130" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>140</v>
       </c>
       <c r="C130" s="5">
-        <f t="shared" si="10"/>
-        <v>13</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
       <c r="D130" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="E130" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F130" s="6">
-        <f t="shared" ref="F130:F193" si="11">(C130*2+D130)/SUM(C130:E130)</f>
-        <v>1.4285714285714286</v>
+        <f t="shared" ref="F130:F193" si="8">(C130*2+D130)/SUM(C130:E130)</f>
+        <v>1.4666666666666666</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>211</v>
@@ -16174,27 +16176,27 @@
     </row>
     <row r="131" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C131" s="5">
-        <f t="shared" si="10"/>
-        <v>9</v>
+        <f t="shared" ref="C131:E162" si="9">COUNTIF($G131:$AJ131,"="&amp;C$1)</f>
+        <v>10</v>
       </c>
       <c r="D131" s="5">
-        <f t="shared" si="10"/>
-        <v>11</v>
+        <f t="shared" si="9"/>
+        <v>12</v>
       </c>
       <c r="E131" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="F131" s="6">
-        <f t="shared" si="11"/>
-        <v>1.0357142857142858</v>
+        <f t="shared" si="8"/>
+        <v>1.0666666666666667</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>210</v>
@@ -16289,27 +16291,27 @@
     </row>
     <row r="132" spans="1:36" ht="87.75" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
-        <f t="shared" ref="A132:A195" si="12">A131+1</f>
+        <f t="shared" ref="A132:A195" si="10">A131+1</f>
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>142</v>
       </c>
       <c r="C132" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="D132" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="E132" s="5">
-        <f t="shared" si="10"/>
-        <v>12</v>
+        <f t="shared" si="9"/>
+        <v>14</v>
       </c>
       <c r="F132" s="6">
-        <f t="shared" si="11"/>
-        <v>0.75</v>
+        <f t="shared" si="8"/>
+        <v>0.7</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>210</v>
@@ -16404,27 +16406,27 @@
     </row>
     <row r="133" spans="1:36" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>143</v>
       </c>
       <c r="C133" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="D133" s="5">
-        <f t="shared" si="10"/>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="E133" s="5">
-        <f t="shared" si="10"/>
-        <v>6</v>
+        <f t="shared" si="9"/>
+        <v>7</v>
       </c>
       <c r="F133" s="6">
-        <f t="shared" si="11"/>
-        <v>1.25</v>
+        <f t="shared" si="8"/>
+        <v>1.2</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>210</v>
@@ -16519,27 +16521,27 @@
     </row>
     <row r="134" spans="1:36" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C134" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="D134" s="5">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <f t="shared" si="9"/>
+        <v>11</v>
       </c>
       <c r="E134" s="5">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="9"/>
+        <v>6</v>
       </c>
       <c r="F134" s="6">
-        <f t="shared" si="11"/>
-        <v>1.2857142857142858</v>
+        <f t="shared" si="8"/>
+        <v>1.2333333333333334</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>210</v>
@@ -16634,27 +16636,27 @@
     </row>
     <row r="135" spans="1:36" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>145</v>
       </c>
       <c r="C135" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="D135" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="E135" s="5">
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="E135" s="5">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
       <c r="F135" s="6">
-        <f t="shared" si="11"/>
-        <v>1.3214285714285714</v>
+        <f t="shared" si="8"/>
+        <v>1.2666666666666666</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>211</v>
@@ -16749,27 +16751,27 @@
     </row>
     <row r="136" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C136" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="D136" s="5">
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="D136" s="5">
-        <f t="shared" si="10"/>
-        <v>11</v>
-      </c>
       <c r="E136" s="5">
-        <f t="shared" si="10"/>
-        <v>6</v>
+        <f t="shared" si="9"/>
+        <v>7</v>
       </c>
       <c r="F136" s="6">
-        <f t="shared" si="11"/>
-        <v>1.1785714285714286</v>
+        <f t="shared" si="8"/>
+        <v>1.1666666666666667</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>211</v>
@@ -16864,27 +16866,27 @@
     </row>
     <row r="137" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>147</v>
       </c>
       <c r="C137" s="5">
-        <f t="shared" si="10"/>
-        <v>13</v>
+        <f t="shared" si="9"/>
+        <v>14</v>
       </c>
       <c r="D137" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="E137" s="5">
-        <f t="shared" si="10"/>
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>8</v>
       </c>
       <c r="F137" s="6">
-        <f t="shared" si="11"/>
-        <v>1.2142857142857142</v>
+        <f t="shared" si="8"/>
+        <v>1.2</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>211</v>
@@ -16979,27 +16981,27 @@
     </row>
     <row r="138" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>148</v>
       </c>
       <c r="C138" s="5">
-        <f t="shared" si="10"/>
-        <v>16</v>
+        <f t="shared" si="9"/>
+        <v>18</v>
       </c>
       <c r="D138" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="E138" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="F138" s="6">
-        <f t="shared" si="11"/>
-        <v>1.5</v>
+        <f t="shared" si="8"/>
+        <v>1.5333333333333334</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>211</v>
@@ -17094,27 +17096,27 @@
     </row>
     <row r="139" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>149</v>
       </c>
       <c r="C139" s="5">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>5</v>
       </c>
       <c r="D139" s="5">
-        <f t="shared" si="10"/>
-        <v>18</v>
+        <f t="shared" si="9"/>
+        <v>19</v>
       </c>
       <c r="E139" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="F139" s="6">
-        <f t="shared" si="11"/>
-        <v>0.9285714285714286</v>
+        <f t="shared" si="8"/>
+        <v>0.96666666666666667</v>
       </c>
       <c r="G139" s="4" t="s">
         <v>210</v>
@@ -17209,27 +17211,27 @@
     </row>
     <row r="140" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C140" s="5">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="D140" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="E140" s="5">
-        <f t="shared" si="10"/>
-        <v>13</v>
+        <f t="shared" si="9"/>
+        <v>14</v>
       </c>
       <c r="F140" s="6">
-        <f t="shared" si="11"/>
-        <v>0.5714285714285714</v>
+        <f t="shared" si="8"/>
+        <v>0.6</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>210</v>
@@ -17324,27 +17326,27 @@
     </row>
     <row r="141" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>151</v>
       </c>
       <c r="C141" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D141" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="E141" s="5">
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="E141" s="5">
-        <f t="shared" si="10"/>
-        <v>13</v>
-      </c>
       <c r="F141" s="6">
-        <f t="shared" si="11"/>
-        <v>0.5714285714285714</v>
+        <f t="shared" si="8"/>
+        <v>0.56666666666666665</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>210</v>
@@ -17439,27 +17441,27 @@
     </row>
     <row r="142" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>152</v>
       </c>
       <c r="C142" s="5">
-        <f t="shared" ref="C142:E161" si="13">COUNTIF($G142:$AH142,"="&amp;C$1)</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="D142" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="E142" s="5">
-        <f t="shared" si="13"/>
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>9</v>
       </c>
       <c r="F142" s="6">
-        <f t="shared" si="11"/>
-        <v>1.0714285714285714</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>210</v>
@@ -17554,27 +17556,27 @@
     </row>
     <row r="143" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>153</v>
       </c>
       <c r="C143" s="5">
-        <f t="shared" si="13"/>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="D143" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="E143" s="5">
-        <f t="shared" si="13"/>
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>8</v>
       </c>
       <c r="F143" s="6">
-        <f t="shared" si="11"/>
-        <v>1.0714285714285714</v>
+        <f t="shared" si="8"/>
+        <v>1.0666666666666667</v>
       </c>
       <c r="G143" s="4" t="s">
         <v>210</v>
@@ -17669,27 +17671,27 @@
     </row>
     <row r="144" spans="1:36" ht="87.75" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C144" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D144" s="5">
-        <f t="shared" si="13"/>
-        <v>10</v>
+        <f t="shared" si="9"/>
+        <v>11</v>
       </c>
       <c r="E144" s="5">
-        <f t="shared" si="13"/>
-        <v>14</v>
+        <f t="shared" si="9"/>
+        <v>15</v>
       </c>
       <c r="F144" s="6">
-        <f t="shared" si="11"/>
-        <v>0.6428571428571429</v>
+        <f t="shared" si="8"/>
+        <v>0.6333333333333333</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>212</v>
@@ -17784,27 +17786,27 @@
     </row>
     <row r="145" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>155</v>
       </c>
       <c r="C145" s="5">
-        <f t="shared" si="13"/>
-        <v>12</v>
+        <f t="shared" si="9"/>
+        <v>13</v>
       </c>
       <c r="D145" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="E145" s="5">
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="E145" s="5">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
       <c r="F145" s="6">
-        <f t="shared" si="11"/>
-        <v>1.1428571428571428</v>
+        <f t="shared" si="8"/>
+        <v>1.1666666666666667</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>211</v>
@@ -17899,27 +17901,27 @@
     </row>
     <row r="146" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>156</v>
       </c>
       <c r="C146" s="5">
-        <f t="shared" si="13"/>
-        <v>5</v>
+        <f t="shared" si="9"/>
+        <v>6</v>
       </c>
       <c r="D146" s="5">
-        <f t="shared" si="13"/>
-        <v>12</v>
+        <f t="shared" si="9"/>
+        <v>13</v>
       </c>
       <c r="E146" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="F146" s="6">
-        <f t="shared" si="11"/>
-        <v>0.7857142857142857</v>
+        <f t="shared" si="8"/>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>211</v>
@@ -18014,27 +18016,27 @@
     </row>
     <row r="147" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>157</v>
       </c>
       <c r="C147" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="D147" s="5">
-        <f t="shared" si="13"/>
-        <v>12</v>
+        <f t="shared" si="9"/>
+        <v>14</v>
       </c>
       <c r="E147" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="F147" s="6">
-        <f t="shared" si="11"/>
-        <v>1.2142857142857142</v>
+        <f t="shared" si="8"/>
+        <v>1.2</v>
       </c>
       <c r="G147" s="4" t="s">
         <v>210</v>
@@ -18129,27 +18131,27 @@
     </row>
     <row r="148" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>158</v>
       </c>
       <c r="C148" s="5">
-        <f t="shared" si="13"/>
-        <v>10</v>
+        <f t="shared" si="9"/>
+        <v>11</v>
       </c>
       <c r="D148" s="5">
-        <f t="shared" si="13"/>
-        <v>14</v>
+        <f t="shared" si="9"/>
+        <v>15</v>
       </c>
       <c r="E148" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="F148" s="6">
-        <f t="shared" si="11"/>
-        <v>1.2142857142857142</v>
+        <f t="shared" si="8"/>
+        <v>1.2333333333333334</v>
       </c>
       <c r="G148" s="4" t="s">
         <v>210</v>
@@ -18244,27 +18246,27 @@
     </row>
     <row r="149" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>159</v>
       </c>
       <c r="C149" s="5">
-        <f t="shared" si="13"/>
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>9</v>
       </c>
       <c r="D149" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E149" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="F149" s="6">
-        <f t="shared" si="11"/>
-        <v>0.6428571428571429</v>
+        <f t="shared" si="8"/>
+        <v>0.73333333333333328</v>
       </c>
       <c r="G149" s="4" t="s">
         <v>211</v>
@@ -18359,27 +18361,27 @@
     </row>
     <row r="150" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>160</v>
       </c>
       <c r="C150" s="5">
-        <f t="shared" si="13"/>
-        <v>6</v>
+        <f t="shared" si="9"/>
+        <v>7</v>
       </c>
       <c r="D150" s="5">
-        <f t="shared" si="13"/>
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>8</v>
       </c>
       <c r="E150" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="F150" s="6">
-        <f t="shared" si="11"/>
-        <v>0.6785714285714286</v>
+        <f t="shared" si="8"/>
+        <v>0.73333333333333328</v>
       </c>
       <c r="G150" s="4" t="s">
         <v>211</v>
@@ -18474,27 +18476,27 @@
     </row>
     <row r="151" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>161</v>
       </c>
       <c r="C151" s="5">
-        <f t="shared" si="13"/>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>11</v>
       </c>
       <c r="D151" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="E151" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="F151" s="6">
-        <f t="shared" si="11"/>
-        <v>0.9285714285714286</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="G151" s="4" t="s">
         <v>211</v>
@@ -18589,27 +18591,27 @@
     </row>
     <row r="152" spans="1:36" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C152" s="5">
-        <f t="shared" si="13"/>
-        <v>10</v>
+        <f t="shared" si="9"/>
+        <v>12</v>
       </c>
       <c r="D152" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="E152" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="F152" s="6">
-        <f t="shared" si="11"/>
-        <v>0.8928571428571429</v>
+        <f t="shared" si="8"/>
+        <v>0.96666666666666667</v>
       </c>
       <c r="G152" s="4" t="s">
         <v>211</v>
@@ -18704,27 +18706,27 @@
     </row>
     <row r="153" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>163</v>
       </c>
       <c r="C153" s="5">
-        <f t="shared" si="13"/>
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>5</v>
       </c>
       <c r="D153" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="E153" s="5">
-        <f t="shared" si="13"/>
-        <v>18</v>
+        <f t="shared" si="9"/>
+        <v>19</v>
       </c>
       <c r="F153" s="6">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
+        <f t="shared" si="8"/>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G153" s="4" t="s">
         <v>210</v>
@@ -18819,27 +18821,27 @@
     </row>
     <row r="154" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>164</v>
       </c>
       <c r="C154" s="5">
-        <f t="shared" si="13"/>
-        <v>10</v>
+        <f t="shared" si="9"/>
+        <v>11</v>
       </c>
       <c r="D154" s="5">
-        <f t="shared" si="13"/>
-        <v>10</v>
+        <f t="shared" si="9"/>
+        <v>11</v>
       </c>
       <c r="E154" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="F154" s="6">
-        <f t="shared" si="11"/>
-        <v>1.0714285714285714</v>
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G154" s="4" t="s">
         <v>210</v>
@@ -18934,27 +18936,27 @@
     </row>
     <row r="155" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>165</v>
       </c>
       <c r="C155" s="5">
-        <f t="shared" si="13"/>
-        <v>14</v>
+        <f t="shared" si="9"/>
+        <v>15</v>
       </c>
       <c r="D155" s="5">
-        <f t="shared" si="13"/>
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>8</v>
       </c>
       <c r="E155" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="F155" s="6">
-        <f t="shared" si="11"/>
-        <v>1.2962962962962963</v>
+        <f t="shared" si="8"/>
+        <v>1.3103448275862069</v>
       </c>
       <c r="G155" s="4" t="s">
         <v>211</v>
@@ -19046,27 +19048,27 @@
     </row>
     <row r="156" spans="1:36" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C156" s="5">
-        <f t="shared" si="13"/>
-        <v>10</v>
+        <f t="shared" si="9"/>
+        <v>11</v>
       </c>
       <c r="D156" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="E156" s="5">
-        <f t="shared" si="13"/>
-        <v>5</v>
+        <f t="shared" si="9"/>
+        <v>6</v>
       </c>
       <c r="F156" s="6">
-        <f t="shared" si="11"/>
-        <v>1.1785714285714286</v>
+        <f t="shared" si="8"/>
+        <v>1.1666666666666667</v>
       </c>
       <c r="G156" s="4" t="s">
         <v>210</v>
@@ -19161,27 +19163,27 @@
     </row>
     <row r="157" spans="1:36" ht="144.75" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>167</v>
       </c>
       <c r="C157" s="5">
-        <f t="shared" si="13"/>
-        <v>10</v>
+        <f t="shared" si="9"/>
+        <v>12</v>
       </c>
       <c r="D157" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="E157" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="F157" s="6">
-        <f t="shared" si="11"/>
-        <v>0.8928571428571429</v>
+        <f t="shared" si="8"/>
+        <v>0.96666666666666667</v>
       </c>
       <c r="G157" s="4" t="s">
         <v>211</v>
@@ -19276,27 +19278,27 @@
     </row>
     <row r="158" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A158" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>168</v>
       </c>
       <c r="C158" s="5">
-        <f t="shared" si="13"/>
-        <v>11</v>
+        <f t="shared" si="9"/>
+        <v>12</v>
       </c>
       <c r="D158" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="E158" s="5">
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="E158" s="5">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
       <c r="F158" s="6">
-        <f t="shared" si="11"/>
-        <v>1.1111111111111112</v>
+        <f t="shared" si="8"/>
+        <v>1.1379310344827587</v>
       </c>
       <c r="G158" s="4" t="s">
         <v>211</v>
@@ -19388,27 +19390,27 @@
     </row>
     <row r="159" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A159" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>169</v>
       </c>
       <c r="C159" s="5">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
       <c r="D159" s="5">
-        <f t="shared" si="13"/>
-        <v>14</v>
+        <f t="shared" si="9"/>
+        <v>15</v>
       </c>
       <c r="E159" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="F159" s="6">
-        <f t="shared" si="11"/>
-        <v>0.6428571428571429</v>
+        <f t="shared" si="8"/>
+        <v>0.7</v>
       </c>
       <c r="G159" s="4" t="s">
         <v>210</v>
@@ -19503,27 +19505,27 @@
     </row>
     <row r="160" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A160" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C160" s="5">
-        <f t="shared" si="13"/>
-        <v>6</v>
+        <f t="shared" si="9"/>
+        <v>7</v>
       </c>
       <c r="D160" s="5">
-        <f t="shared" si="13"/>
-        <v>13</v>
+        <f t="shared" si="9"/>
+        <v>14</v>
       </c>
       <c r="E160" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="F160" s="6">
-        <f t="shared" si="11"/>
-        <v>0.92592592592592593</v>
+        <f t="shared" si="8"/>
+        <v>0.96551724137931039</v>
       </c>
       <c r="G160" s="4" t="s">
         <v>210</v>
@@ -19615,27 +19617,27 @@
     </row>
     <row r="161" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A161" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C161" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="D161" s="5">
-        <f t="shared" si="13"/>
-        <v>16</v>
+        <f t="shared" si="9"/>
+        <v>17</v>
       </c>
       <c r="E161" s="5">
-        <f t="shared" si="13"/>
-        <v>6</v>
+        <f t="shared" si="9"/>
+        <v>7</v>
       </c>
       <c r="F161" s="6">
-        <f t="shared" si="11"/>
-        <v>0.96296296296296291</v>
+        <f t="shared" si="8"/>
+        <v>0.93103448275862066</v>
       </c>
       <c r="G161" s="4" t="s">
         <v>210</v>
@@ -19727,27 +19729,27 @@
     </row>
     <row r="162" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A162" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>172</v>
       </c>
       <c r="C162" s="5">
-        <f t="shared" ref="C162:E181" si="14">COUNTIF($G162:$AH162,"="&amp;C$1)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D162" s="5">
-        <f t="shared" si="14"/>
-        <v>18</v>
+        <f t="shared" si="9"/>
+        <v>20</v>
       </c>
       <c r="E162" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="F162" s="6">
-        <f t="shared" si="11"/>
-        <v>0.96296296296296291</v>
+        <f t="shared" si="8"/>
+        <v>0.96551724137931039</v>
       </c>
       <c r="G162" s="4" t="s">
         <v>210</v>
@@ -19839,27 +19841,27 @@
     </row>
     <row r="163" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>173</v>
       </c>
       <c r="C163" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="C163:E197" si="11">COUNTIF($G163:$AJ163,"="&amp;C$1)</f>
         <v>4</v>
       </c>
       <c r="D163" s="5">
-        <f t="shared" si="14"/>
-        <v>15</v>
+        <f t="shared" si="11"/>
+        <v>17</v>
       </c>
       <c r="E163" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="F163" s="6">
-        <f t="shared" si="11"/>
-        <v>0.85185185185185186</v>
+        <f t="shared" si="8"/>
+        <v>0.86206896551724133</v>
       </c>
       <c r="G163" s="4" t="s">
         <v>211</v>
@@ -19951,27 +19953,27 @@
     </row>
     <row r="164" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A164" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>174</v>
       </c>
       <c r="C164" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="D164" s="5">
-        <f t="shared" si="14"/>
-        <v>8</v>
+        <f t="shared" si="11"/>
+        <v>10</v>
       </c>
       <c r="E164" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="F164" s="6">
-        <f t="shared" si="11"/>
-        <v>0.44444444444444442</v>
+        <f t="shared" si="8"/>
+        <v>0.48275862068965519</v>
       </c>
       <c r="G164" s="4" t="s">
         <v>210</v>
@@ -20063,26 +20065,26 @@
     </row>
     <row r="165" spans="1:36" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A165" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>175</v>
       </c>
       <c r="C165" s="5">
-        <f t="shared" si="14"/>
-        <v>5</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
       </c>
       <c r="D165" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="E165" s="5">
-        <f t="shared" si="14"/>
-        <v>5</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
       </c>
       <c r="F165" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G165" s="4" t="s">
@@ -20175,27 +20177,27 @@
     </row>
     <row r="166" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A166" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>176</v>
       </c>
       <c r="C166" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="D166" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="E166" s="5">
-        <f t="shared" si="14"/>
-        <v>12</v>
+        <f t="shared" si="11"/>
+        <v>14</v>
       </c>
       <c r="F166" s="6">
-        <f t="shared" si="11"/>
-        <v>0.7407407407407407</v>
+        <f t="shared" si="8"/>
+        <v>0.68965517241379315</v>
       </c>
       <c r="G166" s="4" t="s">
         <v>212</v>
@@ -20287,27 +20289,27 @@
     </row>
     <row r="167" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A167" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>177</v>
       </c>
       <c r="C167" s="5">
-        <f t="shared" si="14"/>
-        <v>14</v>
+        <f t="shared" si="11"/>
+        <v>15</v>
       </c>
       <c r="D167" s="5">
-        <f t="shared" si="14"/>
-        <v>12</v>
+        <f t="shared" si="11"/>
+        <v>13</v>
       </c>
       <c r="E167" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="F167" s="6">
-        <f t="shared" si="11"/>
-        <v>1.4285714285714286</v>
+        <f t="shared" si="8"/>
+        <v>1.4333333333333333</v>
       </c>
       <c r="G167" s="4" t="s">
         <v>210</v>
@@ -20402,27 +20404,27 @@
     </row>
     <row r="168" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A168" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>178</v>
       </c>
       <c r="C168" s="5">
-        <f t="shared" si="14"/>
-        <v>13</v>
+        <f t="shared" si="11"/>
+        <v>15</v>
       </c>
       <c r="D168" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="E168" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="F168" s="6">
-        <f t="shared" si="11"/>
-        <v>1.3571428571428572</v>
+        <f t="shared" si="8"/>
+        <v>1.4</v>
       </c>
       <c r="G168" s="4" t="s">
         <v>210</v>
@@ -20517,27 +20519,27 @@
     </row>
     <row r="169" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A169" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>179</v>
       </c>
       <c r="C169" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="D169" s="5">
-        <f t="shared" si="14"/>
-        <v>18</v>
+        <f t="shared" si="11"/>
+        <v>19</v>
       </c>
       <c r="E169" s="5">
-        <f t="shared" si="14"/>
-        <v>4</v>
+        <f t="shared" si="11"/>
+        <v>5</v>
       </c>
       <c r="F169" s="6">
-        <f t="shared" si="11"/>
-        <v>1.0714285714285714</v>
+        <f t="shared" si="8"/>
+        <v>1.0333333333333334</v>
       </c>
       <c r="G169" s="4" t="s">
         <v>212</v>
@@ -20632,27 +20634,27 @@
     </row>
     <row r="170" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A170" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>180</v>
       </c>
       <c r="C170" s="5">
-        <f t="shared" si="14"/>
-        <v>22</v>
+        <f t="shared" si="11"/>
+        <v>23</v>
       </c>
       <c r="D170" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="E170" s="5">
-        <f t="shared" si="14"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
       <c r="F170" s="6">
-        <f t="shared" si="11"/>
-        <v>1.6785714285714286</v>
+        <f t="shared" si="8"/>
+        <v>1.6333333333333333</v>
       </c>
       <c r="G170" s="4" t="s">
         <v>210</v>
@@ -20747,27 +20749,27 @@
     </row>
     <row r="171" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A171" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C171" s="5">
-        <f t="shared" si="14"/>
-        <v>14</v>
+        <f t="shared" si="11"/>
+        <v>15</v>
       </c>
       <c r="D171" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="E171" s="5">
-        <f t="shared" si="14"/>
-        <v>5</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
       </c>
       <c r="F171" s="6">
-        <f t="shared" si="11"/>
-        <v>1.3214285714285714</v>
+        <f t="shared" si="8"/>
+        <v>1.3</v>
       </c>
       <c r="G171" s="4" t="s">
         <v>211</v>
@@ -20862,27 +20864,27 @@
     </row>
     <row r="172" spans="1:36" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A172" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>182</v>
       </c>
       <c r="C172" s="5">
-        <f t="shared" si="14"/>
-        <v>17</v>
+        <f t="shared" si="11"/>
+        <v>18</v>
       </c>
       <c r="D172" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="E172" s="5">
-        <f t="shared" si="14"/>
-        <v>2</v>
+        <f t="shared" si="11"/>
+        <v>3</v>
       </c>
       <c r="F172" s="6">
-        <f t="shared" si="11"/>
-        <v>1.5357142857142858</v>
+        <f t="shared" si="8"/>
+        <v>1.5</v>
       </c>
       <c r="G172" s="4" t="s">
         <v>210</v>
@@ -20977,27 +20979,27 @@
     </row>
     <row r="173" spans="1:36" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A173" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C173" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="D173" s="5">
-        <f t="shared" si="14"/>
-        <v>14</v>
+        <f t="shared" si="11"/>
+        <v>15</v>
       </c>
       <c r="E173" s="5">
-        <f t="shared" si="14"/>
-        <v>5</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
       </c>
       <c r="F173" s="6">
-        <f t="shared" si="11"/>
-        <v>1.1428571428571428</v>
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G173" s="4" t="s">
         <v>210</v>
@@ -21092,27 +21094,27 @@
     </row>
     <row r="174" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A174" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C174" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="D174" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="E174" s="5">
-        <f t="shared" si="14"/>
-        <v>10</v>
+        <f t="shared" si="11"/>
+        <v>12</v>
       </c>
       <c r="F174" s="6">
-        <f t="shared" si="11"/>
-        <v>0.8571428571428571</v>
+        <f t="shared" si="8"/>
+        <v>0.8</v>
       </c>
       <c r="G174" s="4" t="s">
         <v>212</v>
@@ -21207,27 +21209,27 @@
     </row>
     <row r="175" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A175" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>185</v>
       </c>
       <c r="C175" s="5">
-        <f t="shared" si="14"/>
-        <v>18</v>
+        <f t="shared" si="11"/>
+        <v>19</v>
       </c>
       <c r="D175" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="E175" s="5">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="F175" s="6">
-        <f t="shared" si="11"/>
-        <v>1.6428571428571428</v>
+        <f t="shared" si="8"/>
+        <v>1.6</v>
       </c>
       <c r="G175" s="4" t="s">
         <v>211</v>
@@ -21322,27 +21324,27 @@
     </row>
     <row r="176" spans="1:36" ht="87.75" x14ac:dyDescent="0.35">
       <c r="A176" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>186</v>
       </c>
       <c r="C176" s="5">
-        <f t="shared" si="14"/>
-        <v>9</v>
+        <f t="shared" si="11"/>
+        <v>11</v>
       </c>
       <c r="D176" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="E176" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="F176" s="6">
-        <f t="shared" si="11"/>
-        <v>1.1428571428571428</v>
+        <f t="shared" si="8"/>
+        <v>1.2</v>
       </c>
       <c r="G176" s="4" t="s">
         <v>210</v>
@@ -21437,27 +21439,27 @@
     </row>
     <row r="177" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A177" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>187</v>
       </c>
       <c r="C177" s="5">
-        <f t="shared" si="14"/>
-        <v>6</v>
+        <f t="shared" si="11"/>
+        <v>8</v>
       </c>
       <c r="D177" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="E177" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="F177" s="6">
-        <f t="shared" si="11"/>
-        <v>0.8928571428571429</v>
+        <f t="shared" si="8"/>
+        <v>0.96666666666666667</v>
       </c>
       <c r="G177" s="4" t="s">
         <v>210</v>
@@ -21552,27 +21554,27 @@
     </row>
     <row r="178" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A178" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>188</v>
       </c>
       <c r="C178" s="5">
-        <f t="shared" si="14"/>
-        <v>15</v>
+        <f t="shared" si="11"/>
+        <v>17</v>
       </c>
       <c r="D178" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="E178" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F178" s="6">
-        <f t="shared" si="11"/>
-        <v>1.5</v>
+        <f t="shared" si="8"/>
+        <v>1.5333333333333334</v>
       </c>
       <c r="G178" s="4" t="s">
         <v>211</v>
@@ -21667,27 +21669,27 @@
     </row>
     <row r="179" spans="1:36" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A179" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>189</v>
       </c>
       <c r="C179" s="5">
-        <f t="shared" si="14"/>
-        <v>8</v>
+        <f t="shared" si="11"/>
+        <v>9</v>
       </c>
       <c r="D179" s="5">
-        <f t="shared" si="14"/>
-        <v>15</v>
+        <f t="shared" si="11"/>
+        <v>16</v>
       </c>
       <c r="E179" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="F179" s="6">
-        <f t="shared" si="11"/>
-        <v>1.1071428571428572</v>
+        <f t="shared" si="8"/>
+        <v>1.1333333333333333</v>
       </c>
       <c r="G179" s="4" t="s">
         <v>211</v>
@@ -21782,27 +21784,27 @@
     </row>
     <row r="180" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A180" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>190</v>
       </c>
       <c r="C180" s="5">
-        <f t="shared" si="14"/>
-        <v>13</v>
+        <f t="shared" si="11"/>
+        <v>14</v>
       </c>
       <c r="D180" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="E180" s="5">
-        <f t="shared" si="14"/>
-        <v>6</v>
+        <f t="shared" si="11"/>
+        <v>7</v>
       </c>
       <c r="F180" s="6">
-        <f t="shared" si="11"/>
-        <v>1.25</v>
+        <f t="shared" si="8"/>
+        <v>1.2333333333333334</v>
       </c>
       <c r="G180" s="4" t="s">
         <v>210</v>
@@ -21897,27 +21899,27 @@
     </row>
     <row r="181" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A181" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>191</v>
       </c>
       <c r="C181" s="5">
-        <f t="shared" si="14"/>
-        <v>13</v>
+        <f t="shared" si="11"/>
+        <v>14</v>
       </c>
       <c r="D181" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="E181" s="5">
-        <f t="shared" si="14"/>
-        <v>6</v>
+        <f t="shared" si="11"/>
+        <v>7</v>
       </c>
       <c r="F181" s="6">
-        <f t="shared" si="11"/>
-        <v>1.25</v>
+        <f t="shared" si="8"/>
+        <v>1.2333333333333334</v>
       </c>
       <c r="G181" s="4" t="s">
         <v>210</v>
@@ -22012,27 +22014,27 @@
     </row>
     <row r="182" spans="1:36" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A182" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>192</v>
       </c>
       <c r="C182" s="5">
-        <f t="shared" ref="C182:E197" si="15">COUNTIF($G182:$AH182,"="&amp;C$1)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="D182" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="E182" s="5">
-        <f t="shared" si="15"/>
-        <v>15</v>
+        <f t="shared" si="11"/>
+        <v>17</v>
       </c>
       <c r="F182" s="6">
-        <f t="shared" si="11"/>
-        <v>0.6428571428571429</v>
+        <f t="shared" si="8"/>
+        <v>0.6</v>
       </c>
       <c r="G182" s="4" t="s">
         <v>212</v>
@@ -22127,27 +22129,27 @@
     </row>
     <row r="183" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A183" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>193</v>
       </c>
       <c r="C183" s="5">
-        <f t="shared" si="15"/>
-        <v>6</v>
+        <f t="shared" si="11"/>
+        <v>7</v>
       </c>
       <c r="D183" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="E183" s="5">
-        <f t="shared" si="15"/>
-        <v>9</v>
+        <f t="shared" si="11"/>
+        <v>10</v>
       </c>
       <c r="F183" s="6">
-        <f t="shared" si="11"/>
-        <v>0.8928571428571429</v>
+        <f t="shared" si="8"/>
+        <v>0.9</v>
       </c>
       <c r="G183" s="4" t="s">
         <v>210</v>
@@ -22242,27 +22244,27 @@
     </row>
     <row r="184" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A184" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>194</v>
       </c>
       <c r="C184" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="D184" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="E184" s="5">
-        <f t="shared" si="15"/>
-        <v>8</v>
+        <f t="shared" si="11"/>
+        <v>10</v>
       </c>
       <c r="F184" s="6">
-        <f t="shared" si="11"/>
-        <v>0.8928571428571429</v>
+        <f t="shared" si="8"/>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G184" s="4" t="s">
         <v>210</v>
@@ -22357,27 +22359,27 @@
     </row>
     <row r="185" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A185" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>195</v>
       </c>
       <c r="C185" s="5">
-        <f t="shared" si="15"/>
-        <v>15</v>
+        <f t="shared" si="11"/>
+        <v>17</v>
       </c>
       <c r="D185" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="E185" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="F185" s="6">
-        <f t="shared" si="11"/>
-        <v>1.4642857142857142</v>
+        <f t="shared" si="8"/>
+        <v>1.5</v>
       </c>
       <c r="G185" s="4" t="s">
         <v>210</v>
@@ -22472,27 +22474,27 @@
     </row>
     <row r="186" spans="1:36" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A186" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>196</v>
       </c>
       <c r="C186" s="5">
-        <f t="shared" si="15"/>
-        <v>13</v>
+        <f t="shared" si="11"/>
+        <v>14</v>
       </c>
       <c r="D186" s="5">
-        <f t="shared" si="15"/>
-        <v>10</v>
+        <f t="shared" si="11"/>
+        <v>11</v>
       </c>
       <c r="E186" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="F186" s="6">
-        <f t="shared" si="11"/>
-        <v>1.2857142857142858</v>
+        <f t="shared" si="8"/>
+        <v>1.3</v>
       </c>
       <c r="G186" s="4" t="s">
         <v>210</v>
@@ -22587,27 +22589,27 @@
     </row>
     <row r="187" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A187" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>197</v>
       </c>
       <c r="C187" s="5">
-        <f t="shared" si="15"/>
-        <v>8</v>
+        <f t="shared" si="11"/>
+        <v>10</v>
       </c>
       <c r="D187" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="E187" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="F187" s="6">
-        <f t="shared" si="11"/>
-        <v>0.9285714285714286</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="G187" s="4" t="s">
         <v>212</v>
@@ -22702,27 +22704,27 @@
     </row>
     <row r="188" spans="1:36" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A188" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>198</v>
       </c>
       <c r="C188" s="5">
-        <f t="shared" si="15"/>
-        <v>7</v>
+        <f t="shared" si="11"/>
+        <v>8</v>
       </c>
       <c r="D188" s="5">
-        <f t="shared" si="15"/>
-        <v>8</v>
+        <f t="shared" si="11"/>
+        <v>9</v>
       </c>
       <c r="E188" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="F188" s="6">
-        <f t="shared" si="11"/>
-        <v>0.7857142857142857</v>
+        <f t="shared" si="8"/>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G188" s="4" t="s">
         <v>212</v>
@@ -22817,27 +22819,27 @@
     </row>
     <row r="189" spans="1:36" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A189" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>199</v>
       </c>
       <c r="C189" s="5">
-        <f t="shared" si="15"/>
-        <v>6</v>
+        <f t="shared" si="11"/>
+        <v>7</v>
       </c>
       <c r="D189" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="E189" s="5">
-        <f t="shared" si="15"/>
-        <v>13</v>
+        <f t="shared" si="11"/>
+        <v>14</v>
       </c>
       <c r="F189" s="6">
-        <f t="shared" si="11"/>
-        <v>0.75</v>
+        <f t="shared" si="8"/>
+        <v>0.76666666666666672</v>
       </c>
       <c r="G189" s="4" t="s">
         <v>212</v>
@@ -22932,27 +22934,27 @@
     </row>
     <row r="190" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A190" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>200</v>
       </c>
       <c r="C190" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="D190" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="E190" s="5">
-        <f t="shared" si="15"/>
-        <v>11</v>
+        <f t="shared" si="11"/>
+        <v>13</v>
       </c>
       <c r="F190" s="6">
-        <f t="shared" si="11"/>
-        <v>0.7857142857142857</v>
+        <f t="shared" si="8"/>
+        <v>0.73333333333333328</v>
       </c>
       <c r="G190" s="4" t="s">
         <v>212</v>
@@ -23047,27 +23049,27 @@
     </row>
     <row r="191" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A191" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>201</v>
       </c>
       <c r="C191" s="5">
-        <f t="shared" si="15"/>
-        <v>12</v>
+        <f t="shared" si="11"/>
+        <v>13</v>
       </c>
       <c r="D191" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="E191" s="5">
-        <f t="shared" si="15"/>
-        <v>5</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
       </c>
       <c r="F191" s="6">
-        <f t="shared" si="11"/>
-        <v>1.25</v>
+        <f t="shared" si="8"/>
+        <v>1.2333333333333334</v>
       </c>
       <c r="G191" s="4" t="s">
         <v>212</v>
@@ -23162,27 +23164,27 @@
     </row>
     <row r="192" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A192" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>202</v>
       </c>
       <c r="C192" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="D192" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="E192" s="5">
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
-      <c r="E192" s="5">
-        <f t="shared" si="15"/>
-        <v>11</v>
-      </c>
       <c r="F192" s="6">
-        <f t="shared" si="11"/>
-        <v>0.8214285714285714</v>
+        <f t="shared" si="8"/>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G192" s="4" t="s">
         <v>212</v>
@@ -23277,27 +23279,27 @@
     </row>
     <row r="193" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A193" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>203</v>
       </c>
       <c r="C193" s="5">
-        <f t="shared" si="15"/>
-        <v>17</v>
+        <f t="shared" si="11"/>
+        <v>19</v>
       </c>
       <c r="D193" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="E193" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="F193" s="6">
-        <f t="shared" si="11"/>
-        <v>1.4642857142857142</v>
+        <f t="shared" si="8"/>
+        <v>1.5</v>
       </c>
       <c r="G193" s="4" t="s">
         <v>210</v>
@@ -23392,27 +23394,27 @@
     </row>
     <row r="194" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A194" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>204</v>
       </c>
       <c r="C194" s="5">
-        <f t="shared" si="15"/>
-        <v>10</v>
+        <f t="shared" si="11"/>
+        <v>11</v>
       </c>
       <c r="D194" s="5">
-        <f t="shared" si="15"/>
-        <v>13</v>
+        <f t="shared" si="11"/>
+        <v>14</v>
       </c>
       <c r="E194" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="F194" s="6">
-        <f t="shared" ref="F194:F197" si="16">(C194*2+D194)/SUM(C194:E194)</f>
-        <v>1.2222222222222223</v>
+        <f t="shared" ref="F194:F197" si="12">(C194*2+D194)/SUM(C194:E194)</f>
+        <v>1.2413793103448276</v>
       </c>
       <c r="G194" s="4" t="s">
         <v>210</v>
@@ -23504,27 +23506,27 @@
     </row>
     <row r="195" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A195" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>205</v>
       </c>
       <c r="C195" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="D195" s="5">
-        <f t="shared" si="15"/>
-        <v>12</v>
+        <f t="shared" si="11"/>
+        <v>14</v>
       </c>
       <c r="E195" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="F195" s="6">
-        <f t="shared" si="16"/>
-        <v>1.0714285714285714</v>
+        <f t="shared" si="12"/>
+        <v>1.0666666666666667</v>
       </c>
       <c r="G195" s="4" t="s">
         <v>210</v>
@@ -23619,27 +23621,27 @@
     </row>
     <row r="196" spans="1:36" ht="59.25" x14ac:dyDescent="0.35">
       <c r="A196" s="3">
-        <f t="shared" ref="A196:A197" si="17">A195+1</f>
+        <f t="shared" ref="A196:A197" si="13">A195+1</f>
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C196" s="5">
-        <f t="shared" si="15"/>
-        <v>13</v>
+        <f t="shared" si="11"/>
+        <v>14</v>
       </c>
       <c r="D196" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="E196" s="5">
-        <f t="shared" si="15"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
       <c r="F196" s="6">
-        <f t="shared" si="16"/>
-        <v>1.3703703703703705</v>
+        <f t="shared" si="12"/>
+        <v>1.3448275862068966</v>
       </c>
       <c r="G196" s="4" t="s">
         <v>211</v>
@@ -23731,27 +23733,27 @@
     </row>
     <row r="197" spans="1:36" ht="116.25" x14ac:dyDescent="0.35">
       <c r="A197" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>207</v>
       </c>
       <c r="C197" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="D197" s="5">
-        <f t="shared" si="15"/>
-        <v>13</v>
+        <f t="shared" si="11"/>
+        <v>14</v>
       </c>
       <c r="E197" s="5">
-        <f t="shared" si="15"/>
-        <v>11</v>
+        <f t="shared" si="11"/>
+        <v>12</v>
       </c>
       <c r="F197" s="6">
-        <f t="shared" si="16"/>
-        <v>0.75</v>
+        <f t="shared" si="12"/>
+        <v>0.73333333333333328</v>
       </c>
       <c r="G197" s="4" t="s">
         <v>212</v>
@@ -23886,8 +23888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GX32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
